--- a/app/tables/geoweather/forms/geoweather/geoweather.xlsx
+++ b/app/tables/geoweather/forms/geoweather/geoweather.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5440" yWindow="280" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>display.hint</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -369,7 +366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,6 +403,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -775,48 +778,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="8" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="11" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="11" customWidth="1"/>
     <col min="8" max="8" width="42.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="38.58203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="38.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="22" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -828,33 +831,33 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -864,109 +867,120 @@
       <c r="G3" s="10"/>
       <c r="H3" s="6"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="30">
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.5" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="H7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="J8" s="14"/>
       <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="45">
       <c r="B10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="J10" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -988,7 +1002,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
@@ -996,55 +1010,55 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>20140814</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1066,113 +1080,118 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" customHeight="1">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>